--- a/batch-template/warranty-info.xlsx
+++ b/batch-template/warranty-info.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>3223</v>
+        <v>1234567890</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
